--- a/biology/Médecine/Rudolf_Wagner/Rudolf_Wagner.xlsx
+++ b/biology/Médecine/Rudolf_Wagner/Rudolf_Wagner.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rudolf Friedrich Johann Heinrich Wagner (né le 30 juillet 1805 – mort le 13 mai 1864) est un anatomiste et physiologiste bavarois. Il est le co-découvreur de l'ovocyte[1]. Ses recherches se sont concentrées sur le ganglion nerveux, les terminaisons nerveuses et le nerf sympathique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rudolf Friedrich Johann Heinrich Wagner (né le 30 juillet 1805 – mort le 13 mai 1864) est un anatomiste et physiologiste bavarois. Il est le co-découvreur de l'ovocyte. Ses recherches se sont concentrées sur le ganglion nerveux, les terminaisons nerveuses et le nerf sympathique.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rudolf Wagner naît à Bayreuth, où son père est professeur dans un gymnasium.
-Il commence des études de médecine à l'université Friedrich-Alexander d'Erlangen-Nuremberg en 1822. Il complète son curriculum en 1826 à Wurtzbourg, où il étudie sous la tutelle, notamment, de Johann Lukas Schönlein (médecine) et Karl Friedrich Heusinger (anatomie comparée). À l'aide d'une bourse publique, il étudie au moins un an aux Jardin des plantes avec Georges Cuvier et fait des découvertes zoologiques autour de la mer Méditerranée, notamment à Cagliari[2].
-De retour en Allemagne, il commence sa pratique médicale à Augsbourg, où son père a été transféré. Quelques mois plus tard, il est nommé prosecteur à Erlangen. En 1832, il y devient professeur de zoologie et d'anatomie comparée, poste qu'il occupe jusqu'en 1840. À ce moment, il succède à Johann Friedrich Blumenbach à l'université de Göttingen[2].
+Il commence des études de médecine à l'université Friedrich-Alexander d'Erlangen-Nuremberg en 1822. Il complète son curriculum en 1826 à Wurtzbourg, où il étudie sous la tutelle, notamment, de Johann Lukas Schönlein (médecine) et Karl Friedrich Heusinger (anatomie comparée). À l'aide d'une bourse publique, il étudie au moins un an aux Jardin des plantes avec Georges Cuvier et fait des découvertes zoologiques autour de la mer Méditerranée, notamment à Cagliari.
+De retour en Allemagne, il commence sa pratique médicale à Augsbourg, où son père a été transféré. Quelques mois plus tard, il est nommé prosecteur à Erlangen. En 1832, il y devient professeur de zoologie et d'anatomie comparée, poste qu'il occupe jusqu'en 1840. À ce moment, il succède à Johann Friedrich Blumenbach à l'université de Göttingen.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1855, Rudolph Wagner entreprend l'étude post-mortem de cerveaux humains. Cette année-là, à la suite du décès de Carl Friedrich Gauss, Wagner obtint du fils de Gauss l'autorisation d'examiner le cerveau de son père[N 1],[3]. Au cours des années suivantes, Wagner aura examiné et comparé de façon détaillée les cerveaux de 964 personnes issues d'une grande diversité de milieux. Avec les moyens dont il disposait à l'époque, il ne put découvrir ce qui distinguait les cerveaux de Gauss et de Cuvier des cerveaux de certaines personnes ne possédant aucune disposition particulière : si le cerveau de Cuvier était volumineux et celui de Gauss creusé de nombreux sillons, c'était le cas aussi pour d'autres personnes[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1855, Rudolph Wagner entreprend l'étude post-mortem de cerveaux humains. Cette année-là, à la suite du décès de Carl Friedrich Gauss, Wagner obtint du fils de Gauss l'autorisation d'examiner le cerveau de son père[N 1],. Au cours des années suivantes, Wagner aura examiné et comparé de façon détaillée les cerveaux de 964 personnes issues d'une grande diversité de milieux. Avec les moyens dont il disposait à l'époque, il ne put découvrir ce qui distinguait les cerveaux de Gauss et de Cuvier des cerveaux de certaines personnes ne possédant aucune disposition particulière : si le cerveau de Cuvier était volumineux et celui de Gauss creusé de nombreux sillons, c'était le cas aussi pour d'autres personnes.
 </t>
         </is>
       </c>
